--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1620190.839427386</v>
+        <v>1614469.2274595</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>76.78471290126674</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>69.0708624534348</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7.634490799661747</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>352.8424181630679</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>203.5933316365562</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>54.46079155833878</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>43.95772706123027</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>34.37808733934408</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>270.0049646154807</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.02146927219732</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.9899243971807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>67.59904172800285</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>110.6977437732693</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,7 +2177,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>80.76468634461081</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>36.18491463503143</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.66568238532271</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>251.5023521518545</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3207,7 +3207,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>5.083327615043285</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>215.1290445748738</v>
       </c>
       <c r="V37" t="n">
-        <v>147.0633545968135</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>169.585558829629</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>218.514364503752</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>127.3165365479907</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>549.4671059840632</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2572.351853615953</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2572.351853615953</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2572.351853615953</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2572.351853615953</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2572.351853615953</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2198.886095354873</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.746763379062</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1534.318342165211</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>1534.318342165211</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>1534.318342165211</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E5" t="n">
-        <v>1148.530089566967</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F5" t="n">
-        <v>737.5441847773595</v>
+        <v>426.9821918225993</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>413.0587877611902</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2311.057514205145</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1920.918182229333</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>643.7011644960776</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.158393318536</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.747346511929</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>1627.758233382657</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1627.758233382657</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5035,7 +5035,7 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5050,19 +5050,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5114,7 +5114,7 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5126,16 +5126,16 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>192.8867116300491</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C13" t="n">
-        <v>192.8867116300491</v>
+        <v>300.048425655595</v>
       </c>
       <c r="D13" t="n">
-        <v>192.8867116300491</v>
+        <v>300.048425655595</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>300.048425655595</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>153.1584781576846</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>153.1584781576846</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.8867116300491</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,25 +5278,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,52 +5357,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>508.0400813400981</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="C16" t="n">
-        <v>339.1038984121913</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="D16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1384.778648927267</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1130.09416072138</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>840.6769906844198</v>
       </c>
       <c r="X16" t="n">
-        <v>508.0400813400981</v>
+        <v>612.6874397864025</v>
       </c>
       <c r="Y16" t="n">
-        <v>508.0400813400981</v>
+        <v>391.8948606428723</v>
       </c>
     </row>
     <row r="17">
@@ -5494,49 +5494,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1023.336921276364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.343466104704</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1943.184686185112</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1653.767516148151</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>1425.777965250134</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.985386106604</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075806</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5846,25 +5846,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2917.269290763413</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C22" t="n">
-        <v>2917.269290763413</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D22" t="n">
-        <v>2917.269290763413</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763413</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763413</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.768765573601</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699244</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>3730.981410493358</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>3441.564240456397</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X22" t="n">
-        <v>3213.57468955838</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y22" t="n">
-        <v>2992.78211041485</v>
+        <v>591.8022834018255</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -6004,16 +6004,16 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>674.3568109459524</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>674.3568109459524</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>524.2401715336166</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>376.3270779512235</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>229.4371304533131</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.1389409875</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>895.1493900894825</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.3568109459524</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6229,16 +6229,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942216</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1674.827124689058</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1674.827124689058</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1385.409954652097</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1157.42040375408</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1058.768199324461</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1732.058578925875</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2265.5904835978</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1702.300686153336</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1447.616197947449</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1158.199027910488</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>930.2094770124706</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.4168978689405</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6706,19 +6706,19 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1172.647446689875</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M32" t="n">
-        <v>2151.197749519704</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.950021746351</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6782,16 +6782,16 @@
         <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6812,10 +6812,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
         <v>1554.419908487875</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.662598458018</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6891,19 +6891,19 @@
         <v>1866.513008862232</v>
       </c>
       <c r="U34" t="n">
-        <v>1866.513008862232</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V34" t="n">
-        <v>1866.513008862232</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="W34" t="n">
-        <v>1751.093193329805</v>
+        <v>1287.992971950915</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.103642431788</v>
+        <v>1060.003421052897</v>
       </c>
       <c r="Y34" t="n">
-        <v>1302.311063288258</v>
+        <v>1054.868746694268</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6934,37 +6934,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
         <v>4461.783306331037</v>
@@ -6973,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,16 +7034,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2917.269290763411</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C37" t="n">
-        <v>2917.269290763411</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
-        <v>2917.269290763411</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>2917.269290763411</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>2917.269290763411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004074</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.7687655736</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U37" t="n">
-        <v>3985.665898699243</v>
+        <v>1649.210943635087</v>
       </c>
       <c r="V37" t="n">
-        <v>3837.117055672159</v>
+        <v>1394.5264554292</v>
       </c>
       <c r="W37" t="n">
-        <v>3547.699885635198</v>
+        <v>1105.109285392239</v>
       </c>
       <c r="X37" t="n">
-        <v>3319.710334737181</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="Y37" t="n">
-        <v>3098.917755593651</v>
+        <v>877.1197344942216</v>
       </c>
     </row>
     <row r="38">
@@ -7156,55 +7156,55 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
@@ -7229,58 +7229,58 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>540.4807149410336</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C40" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1695.214464589879</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1473.447849159405</v>
       </c>
       <c r="U40" t="n">
-        <v>1232.338928951764</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="V40" t="n">
-        <v>1232.338928951764</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W40" t="n">
-        <v>942.9217589148035</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X40" t="n">
-        <v>942.9217589148035</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y40" t="n">
-        <v>722.1291797712734</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3641.993171584094</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1866.513008862232</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1866.513008862232</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1751.093193329805</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>1523.103642431788</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7639,46 +7639,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2762.028521254639</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>391.866433243363</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8698,22 +8698,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>39.48321557772681</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>288.047814956104</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>241.9338129178262</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704411</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>295.4822118493972</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>176.2173930448424</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,22 +10354,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>104.3976710547477</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>7.630896635344584</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>133.2530576400247</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>160.3329896347532</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>219.3344627260153</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>87.73354564212346</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.59472895491405</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>218.61279647761</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>115.0119116157678</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23940,16 +23940,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270147</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>137.819967007484</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>129.8408936239968</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>120.9189709667721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>34.70948605375841</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.5013257370515</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>71.0827936307391</v>
       </c>
       <c r="V37" t="n">
-        <v>105.0742887270145</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>20.18346650181294</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>67.69747370186087</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.51544363394665</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.714563124</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914260.7145631241</v>
+        <v>914260.7145631242</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>914260.7145631241</v>
+        <v>914260.7145631242</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="16">
@@ -26316,34 +26316,34 @@
         <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
+        <v>496352.2336087289</v>
+      </c>
+      <c r="F2" t="n">
         <v>496352.233608729</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>496352.2336087289</v>
       </c>
-      <c r="G2" t="n">
-        <v>496352.233608729</v>
-      </c>
       <c r="H2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="I2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="J2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="K2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087287</v>
       </c>
       <c r="L2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="M2" t="n">
         <v>496352.2336087289</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="F4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="H4" t="n">
-        <v>21619.60799709189</v>
-      </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
@@ -26481,13 +26481,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26496,22 +26496,22 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-351882.4475052069</v>
       </c>
       <c r="C6" t="n">
-        <v>238085.431709338</v>
+        <v>238085.4317093379</v>
       </c>
       <c r="D6" t="n">
-        <v>238085.431709338</v>
+        <v>238085.4317093379</v>
       </c>
       <c r="E6" t="n">
-        <v>-349028.3066354833</v>
+        <v>-349700.2615377413</v>
       </c>
       <c r="F6" t="n">
-        <v>378349.1073579233</v>
+        <v>377677.1524556657</v>
       </c>
       <c r="G6" t="n">
-        <v>378349.1073579234</v>
+        <v>377677.1524556652</v>
       </c>
       <c r="H6" t="n">
-        <v>378349.1073579235</v>
+        <v>377677.1524556653</v>
       </c>
       <c r="I6" t="n">
-        <v>378349.1073579231</v>
+        <v>377677.1524556655</v>
       </c>
       <c r="J6" t="n">
-        <v>201925.8881653306</v>
+        <v>201253.9332630726</v>
       </c>
       <c r="K6" t="n">
-        <v>378349.1073579233</v>
+        <v>377677.1524556653</v>
       </c>
       <c r="L6" t="n">
-        <v>378349.1073579233</v>
+        <v>377677.1524556653</v>
       </c>
       <c r="M6" t="n">
-        <v>248706.7925189787</v>
+        <v>248034.8376167207</v>
       </c>
       <c r="N6" t="n">
-        <v>378349.1073579234</v>
+        <v>377677.1524556654</v>
       </c>
       <c r="O6" t="n">
-        <v>378349.1073579234</v>
+        <v>377677.1524556653</v>
       </c>
       <c r="P6" t="n">
-        <v>378349.1073579234</v>
+        <v>377677.1524556654</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>330.0913328404447</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>105.3448503555367</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>184.5011865124287</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>60.94175185772707</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>120.3294411278009</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>53.97620323457204</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6847473916801</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>10.52067551358146</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>335.353013339125</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28028,7 +28028,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>16.51803372111027</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35418,22 +35418,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>578.4043314079536</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115044</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>697.5239273101583</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552631</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36597,19 +36597,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>751.0723262417293</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>631.8075074371745</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>559.9877854470799</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>559.9327320482561</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>532.0150438593965</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>559.0949758541251</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>727.3874636142344</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1614469.2274595</v>
+        <v>1617874.71858395</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>76.78471290126674</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>331.7615209354891</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.634490799661747</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>153.0555388225932</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>133.5065782393455</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>203.5933316365562</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.19510348422572</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.95772706123027</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>152.338902686281</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.02146927219732</v>
+        <v>90.41948680756546</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>67.59904172800285</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>160.4983139797276</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>112.9454894324105</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>203.4068132192029</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>84.69473660442844</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.76468634461081</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>79.54367350501126</v>
       </c>
     </row>
     <row r="26">
@@ -2614,7 +2614,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0811591537001</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>124.3905482216091</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>102.8228810500187</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.083327615043285</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>51.40234901104168</v>
       </c>
       <c r="U37" t="n">
-        <v>215.1290445748738</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>169.585558829629</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>45.80704487268839</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4318,13 +4318,13 @@
         <v>549.4671059840632</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>542.5216052348597</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5443364482876</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
         <v>222.942782082032</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>573.5274298401787</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>819.715945170047</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E5" t="n">
-        <v>433.9276925718028</v>
+        <v>202.721515416466</v>
       </c>
       <c r="F5" t="n">
-        <v>426.9821918225993</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>413.0587877611902</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.5382038240415</v>
+        <v>68.28147018826922</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5382038240415</v>
+        <v>68.28147018826922</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>68.28147018826922</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>68.28147018826922</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>68.28147018826922</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>68.28147018826922</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>68.28147018826922</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240415</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5382038240415</v>
+        <v>470.722514162039</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.5382038240415</v>
+        <v>249.9299350185089</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2652.747346511929</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2476.569858826099</v>
+        <v>2488.242722067624</v>
       </c>
       <c r="T8" t="n">
-        <v>2476.569858826099</v>
+        <v>2488.242722067624</v>
       </c>
       <c r="U8" t="n">
-        <v>2476.569858826099</v>
+        <v>2488.242722067624</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.569858826099</v>
+        <v>2488.242722067624</v>
       </c>
       <c r="W8" t="n">
-        <v>2476.569858826099</v>
+        <v>2135.474066797509</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>2135.474066797509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>1745.334734821698</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5004,10 +5004,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5035,7 +5035,7 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5047,22 +5047,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M11" t="n">
-        <v>2055.398642844495</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5111,7 +5111,7 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468563</v>
@@ -5120,10 +5120,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5132,13 +5132,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>300.048425655595</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C13" t="n">
-        <v>300.048425655595</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D13" t="n">
-        <v>300.048425655595</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E13" t="n">
-        <v>300.048425655595</v>
+        <v>333.7837969034416</v>
       </c>
       <c r="F13" t="n">
-        <v>153.1584781576846</v>
+        <v>186.8938494055313</v>
       </c>
       <c r="G13" t="n">
-        <v>153.1584781576846</v>
+        <v>186.8938494055313</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5278,28 +5278,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.866738172571</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903277</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3950.852187039507</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390113</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320235</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>391.8948606428723</v>
+        <v>557.6043516563539</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8948606428723</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7782212305366</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F16" t="n">
         <v>241.7782212305366</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1384.778648927267</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1130.09416072138</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>840.6769906844198</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>612.6874397864025</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y16" t="n">
-        <v>391.8948606428723</v>
+        <v>739.2528164865936</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>524.2401715336166</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,22 +5752,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1797.117834600129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2330.649739272054</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107237</v>
@@ -5779,25 +5779,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>410.1538185715858</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1538185715858</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1538185715858</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570255</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X22" t="n">
-        <v>673.3827746590082</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y22" t="n">
-        <v>591.8022834018255</v>
+        <v>362.7597382730063</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>593.0356297044514</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,67 +6211,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1682.725100522031</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>804.8364680322012</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1732.058578925875</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2265.5904835978</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>2812.369300656582</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3692.333950986037</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>953.2024825836316</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>784.2662996557248</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>634.149660243389</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>486.2365666609959</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>486.2365666609959</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>318.5337300357148</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>1134.850947413871</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,13 +6703,13 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.844055175504</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
         <v>2602.177459903277</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6782,16 +6782,16 @@
         <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6812,10 +6812,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
         <v>1554.419908487875</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>873.220281864028</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C34" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.410141987875</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V34" t="n">
-        <v>1577.410141987875</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W34" t="n">
-        <v>1287.992971950915</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X34" t="n">
-        <v>1060.003421052897</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y34" t="n">
-        <v>1054.868746694268</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6943,13 +6943,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6967,16 +6967,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7119,25 +7119,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1866.513008862232</v>
+        <v>1904.421901447086</v>
       </c>
       <c r="U37" t="n">
-        <v>1649.210943635087</v>
+        <v>1615.31903457273</v>
       </c>
       <c r="V37" t="n">
-        <v>1394.5264554292</v>
+        <v>1615.31903457273</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.109285392239</v>
+        <v>1325.901864535769</v>
       </c>
       <c r="X37" t="n">
-        <v>877.1197344942216</v>
+        <v>1097.912313637752</v>
       </c>
       <c r="Y37" t="n">
         <v>877.1197344942216</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320239</v>
@@ -7268,25 +7268,25 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264.4972173763014</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1695.214464589879</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1473.447849159405</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1184.344982285049</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1184.344982285049</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>894.9278122480886</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>666.9382613500712</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>446.1456822065411</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7393,46 +7393,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2215.249704195857</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>2762.028521254639</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O41" t="n">
-        <v>3641.993171584094</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839442</v>
@@ -7599,22 +7599,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1429.284972761529</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>1139.867802724568</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>911.8782518265509</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
     <row r="44">
@@ -7639,46 +7639,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,10 +7833,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
         <v>1270.093287563029</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8695,25 +8695,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>39.48321557772681</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>170.1140909277305</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>288.047814956104</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>126.3855966773243</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>241.9338129178262</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>295.4822118493972</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>176.2173930448424</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,16 +10351,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>7.630896635344584</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P41" t="n">
-        <v>160.3329896347532</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>87.73354564212346</v>
+        <v>54.33552810675532</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>218.61279647761</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>58.08633937236718</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>33.4884732141587</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,10 +23940,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>16.14213605696631</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>81.33107165459978</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.819967007484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>139.0409798470835</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>122.6284962353371</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>20.36446669271169</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>183.3889571555941</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.5013257370515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>168.1466002651275</v>
       </c>
       <c r="U37" t="n">
-        <v>71.0827936307391</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>20.18346650181294</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>206.3305984511396</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914260.714563124</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>914260.7145631241</v>
+        <v>914260.7145631242</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>914260.7145631241</v>
+        <v>914260.7145631242</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>914260.7145631241</v>
+        <v>914260.7145631242</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>914260.7145631241</v>
+        <v>914260.7145631242</v>
       </c>
     </row>
     <row r="12">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="F2" t="n">
+        <v>496352.2336087289</v>
+      </c>
+      <c r="G2" t="n">
         <v>496352.233608729</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>496352.2336087289</v>
-      </c>
-      <c r="H2" t="n">
-        <v>496352.2336087288</v>
       </c>
       <c r="I2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="J2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.233608729</v>
       </c>
       <c r="K2" t="n">
+        <v>496352.233608729</v>
+      </c>
+      <c r="L2" t="n">
         <v>496352.2336087287</v>
-      </c>
-      <c r="L2" t="n">
-        <v>496352.2336087288</v>
       </c>
       <c r="M2" t="n">
         <v>496352.2336087289</v>
@@ -26355,7 +26355,7 @@
         <v>496352.2336087289</v>
       </c>
       <c r="P2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="F4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
@@ -26459,7 +26459,7 @@
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26493,10 +26493,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351882.4475052069</v>
+        <v>-351882.4475052066</v>
       </c>
       <c r="C6" t="n">
-        <v>238085.4317093379</v>
+        <v>238085.4317093377</v>
       </c>
       <c r="D6" t="n">
-        <v>238085.4317093379</v>
+        <v>238085.4317093381</v>
       </c>
       <c r="E6" t="n">
-        <v>-349700.2615377413</v>
+        <v>-349095.5021257092</v>
       </c>
       <c r="F6" t="n">
-        <v>377677.1524556657</v>
+        <v>378281.9118676975</v>
       </c>
       <c r="G6" t="n">
-        <v>377677.1524556652</v>
+        <v>378281.9118676977</v>
       </c>
       <c r="H6" t="n">
-        <v>377677.1524556653</v>
+        <v>378281.9118676975</v>
       </c>
       <c r="I6" t="n">
-        <v>377677.1524556655</v>
+        <v>378281.9118676975</v>
       </c>
       <c r="J6" t="n">
-        <v>201253.9332630726</v>
+        <v>201858.6926751047</v>
       </c>
       <c r="K6" t="n">
-        <v>377677.1524556653</v>
+        <v>378281.9118676976</v>
       </c>
       <c r="L6" t="n">
-        <v>377677.1524556653</v>
+        <v>378281.9118676974</v>
       </c>
       <c r="M6" t="n">
-        <v>248034.8376167207</v>
+        <v>248639.5970287528</v>
       </c>
       <c r="N6" t="n">
-        <v>377677.1524556654</v>
+        <v>378281.9118676975</v>
       </c>
       <c r="O6" t="n">
-        <v>377677.1524556653</v>
+        <v>378281.9118676975</v>
       </c>
       <c r="P6" t="n">
-        <v>377677.1524556654</v>
+        <v>378281.9118676975</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>330.0913328404447</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>82.02264908530589</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>138.7994718469074</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>71.9795666354911</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>273.3694675023659</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>120.3294411278009</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>53.97620323457204</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>120.7705183081125</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>10.52067551358146</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>22.07681012269052</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35415,25 +35415,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>578.4043314079536</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>568.8760771471024</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>625.2391015115044</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>525.1475828966961</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>697.5239273101583</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>751.0723262417293</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>631.8075074371745</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>559.9327320482561</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
@@ -37311,7 +37311,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P41" t="n">
-        <v>559.0949758541251</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
